--- a/InputData/indst/IFStFS/Indst Fuels Subject to Fuel Shifting.xlsx
+++ b/InputData/indst/IFStFS/Indst Fuels Subject to Fuel Shifting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\indst\IFStFS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/nj/indst/ifstfs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0759892E-1323-4FFF-9486-B98EF23171D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5BF01D-E7E5-CE46-84BD-79083600D9D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31350" yWindow="4560" windowWidth="22830" windowHeight="17235" xr2:uid="{CEBBDD15-8244-44C2-A2EB-EB506D69E415}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" xr2:uid="{CEBBDD15-8244-44C2-A2EB-EB506D69E415}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -274,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -287,6 +287,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,14 +606,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="8">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -620,74 +624,74 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -707,13 +711,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.28515625" customWidth="1"/>
-    <col min="2" max="11" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="46.33203125" customWidth="1"/>
+    <col min="2" max="11" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -748,7 +752,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -783,7 +787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -818,7 +822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -853,7 +857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -888,7 +892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -923,7 +927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -958,7 +962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -993,7 +997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1028,7 +1032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1063,7 +1067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1098,7 +1102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1133,7 +1137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1168,7 +1172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1203,7 +1207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1238,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1273,7 +1277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1308,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1343,7 +1347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1378,7 +1382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1413,7 +1417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -1448,7 +1452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1483,7 +1487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1518,7 +1522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -1553,7 +1557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -1588,7 +1592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>38</v>
       </c>

--- a/InputData/indst/IFStFS/Indst Fuels Subject to Fuel Shifting.xlsx
+++ b/InputData/indst/IFStFS/Indst Fuels Subject to Fuel Shifting.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/nj/indst/ifstfs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/indst/ifstfs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5BF01D-E7E5-CE46-84BD-79083600D9D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BB7607-90C2-1842-851A-D36E9956DA6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" xr2:uid="{CEBBDD15-8244-44C2-A2EB-EB506D69E415}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{CEBBDD15-8244-44C2-A2EB-EB506D69E415}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
